--- a/biology/Zoologie/Hibou_grand-duc/Hibou_grand-duc.xlsx
+++ b/biology/Zoologie/Hibou_grand-duc/Hibou_grand-duc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bubo bubo · Grand-duc d'Europe
 Le Hibou grand-duc[a] (Bubo bubo), également appelé Grand-duc d'Europe[b], est une espèce de rapaces nocturnes qui vit dans une bonne partie de l'Europe et de l'Asie.
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec ses 75 cm de haut, le Grand-duc est le plus grand des rapaces nocturnes d'Europe : il mesure le double de son proche cousin, le Hibou moyen-duc.
 Qualifiée d'« aristocratique », sa silhouette est massive, sa tête, piquée de deux gros yeux rouge-orangé est surmontée d'aigrettes de 8 cm environ que l'oiseau dresse verticalement s'il est excité ou dérangé. Ces aigrettes sont normalement horizontales et un peu repliées vers l'arrière. Rappelons que ces aigrettes ne jouent aucun rôle dans l'audition. Les sexes se distinguent par la taille du mâle (tiercelet), plus petit. Mimétique aux branchages, son plumage est brun-roussâtre dessus, taché et rayé de brun noir. Le dessous est plus clair, fauve avec des stries longitudinales et des zébrures transversales de couleur brun foncé.
-Le poids du mâle varie de 2 à 2,5 kg, celui de la femelle de 2,5 à 3,3 kg. Long de 65 à 75 cm, le Grand-duc d'Europe possède une envergure allant de 160 à 188 cm[6]. Il peut vivre plus de 20 ans.
+Le poids du mâle varie de 2 à 2,5 kg, celui de la femelle de 2,5 à 3,3 kg. Long de 65 à 75 cm, le Grand-duc d'Europe possède une envergure allant de 160 à 188 cm. Il peut vivre plus de 20 ans.
 </t>
         </is>
       </c>
@@ -547,16 +561,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vol
-Il a un vol agile et silencieux malgré sa grande taille, car il est doté comme la plupart des oiseaux nocturnes d'un plumage duveteux, très flexible, qui lui permet de voler sans bruit. En vol, il est aisément reconnaissable à sa grande envergure, appuyé sur ses grandes ailes longues et larges, et détachant bien sa tête assez pointue, la queue courte.
-Alimentation
-La nourriture du Grand-duc d'Europe est des plus variées. Il se nourrit de toutes sortes de proies, des scarabées aux faons de cervidés. La majeure partie de son régime est composée de mammifères (campagnols, rats, souris, renardeaux, lièvres) également en oiseaux de toutes sortes. Il peut aussi consommer des serpents, lézards, anoures, poissons et crabes, ainsi que des rongeurs, lapins, lièvres, hérissons, oiseaux (corbeaux, pigeons, perdrix), oiseaux marins, chauves-souris et même d'autres rapaces diurnes et nocturnes. Les chats en ont une peur atavique[réf. nécessaire]. Cet animal n'a pas d'autre prédateur naturel que l'homme, c'est donc un superprédateur.
-Les pelotes de réjection du Grand-duc d'Europe mesurent généralement 10 cm de long.
-Vocalisations
-Le Grand-duc d'Europe émet un « bouhou » ou un « ouhouhou-ou-ouhouhouhouhou » (d'où son nom latin, Bubo bubo) audible de loin, ainsi que toutes sortes d'autres bruits.
-Reproduction
-Le couple installe son nid dans une niche de falaise, dans des éboulis de gros rochers, plus rarement dans un ancien nid de rapace ou à même le sol. Il niche jusqu'à 2 400 m d'altitude[7]. De fin mars à début avril, le Grand-duc d'Europe construit un nid simplement garni de restes de poils ou de plumes arrachés à ses proies. La femelle y pond 2 à 4 œufs blancs, qu'elle couve seule pendant 32 à 37 jours, tandis que le mâle lui apporte la nourriture. Une fois éclos, les petits sont protégés par la mère des intempéries et du soleil. Un mois et demi plus tard environ, les petits quittent le nid mais restent à proximité. À trois mois, ils savent parfaitement voler. La femelle n'hésite pas à attaquer, avec le bec et les serres, tout intrus susceptible de menacer ses jeunes, aidée en cela par le mâle[réf. nécessaire].
-Œuf : 51 à 73 mm de long par 42 à 54 mm de large.</t>
+          <t>Vol</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a un vol agile et silencieux malgré sa grande taille, car il est doté comme la plupart des oiseaux nocturnes d'un plumage duveteux, très flexible, qui lui permet de voler sans bruit. En vol, il est aisément reconnaissable à sa grande envergure, appuyé sur ses grandes ailes longues et larges, et détachant bien sa tête assez pointue, la queue courte.
+</t>
         </is>
       </c>
     </row>
@@ -581,15 +593,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Comportement</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Répartition
-Il est répandu dans une très large bande centrale de l'Eurasie, du Portugal à la Corée, mais est toutefois absent des toundras arctiques au nord et des forêts du sud-est asiatique au sud. En France, il vit dans les zones rocheuses de l'est, du centre et du sud. On le rencontre aussi bien dans les plaines que dans les montagnes[8].
-Habitat
-On rencontre le Grand-duc d'Europe aussi bien dans les plaines que dans les montagnes. Il aime particulièrement les falaises, près des plans d'eau. Très discret, il s'installe sur des corniches rocheuses, sur les remparts d'un vieux château ou à même le sol ; parfois dans les régions du nord, dans un trou d'arbre mais sans aucun doute, sa préférence va aux grandes falaises proches d'un plan d'eau.</t>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nourriture du Grand-duc d'Europe est des plus variées. Il se nourrit de toutes sortes de proies, des scarabées aux faons de cervidés. La majeure partie de son régime est composée de mammifères (campagnols, rats, souris, renardeaux, lièvres) également en oiseaux de toutes sortes. Il peut aussi consommer des serpents, lézards, anoures, poissons et crabes, ainsi que des rongeurs, lapins, lièvres, hérissons, oiseaux (corbeaux, pigeons, perdrix), oiseaux marins, chauves-souris et même d'autres rapaces diurnes et nocturnes. Les chats en ont une peur atavique[réf. nécessaire]. Cet animal n'a pas d'autre prédateur naturel que l'homme, c'est donc un superprédateur.
+Les pelotes de réjection du Grand-duc d'Europe mesurent généralement 10 cm de long.
+</t>
         </is>
       </c>
     </row>
@@ -614,13 +631,166 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vocalisations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Grand-duc d'Europe émet un « bouhou » ou un « ouhouhou-ou-ouhouhouhouhou » (d'où son nom latin, Bubo bubo) audible de loin, ainsi que toutes sortes d'autres bruits.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hibou_grand-duc</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hibou_grand-duc</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le couple installe son nid dans une niche de falaise, dans des éboulis de gros rochers, plus rarement dans un ancien nid de rapace ou à même le sol. Il niche jusqu'à 2 400 m d'altitude. De fin mars à début avril, le Grand-duc d'Europe construit un nid simplement garni de restes de poils ou de plumes arrachés à ses proies. La femelle y pond 2 à 4 œufs blancs, qu'elle couve seule pendant 32 à 37 jours, tandis que le mâle lui apporte la nourriture. Une fois éclos, les petits sont protégés par la mère des intempéries et du soleil. Un mois et demi plus tard environ, les petits quittent le nid mais restent à proximité. À trois mois, ils savent parfaitement voler. La femelle n'hésite pas à attaquer, avec le bec et les serres, tout intrus susceptible de menacer ses jeunes, aidée en cela par le mâle[réf. nécessaire].
+Œuf : 51 à 73 mm de long par 42 à 54 mm de large.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hibou_grand-duc</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hibou_grand-duc</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est répandu dans une très large bande centrale de l'Eurasie, du Portugal à la Corée, mais est toutefois absent des toundras arctiques au nord et des forêts du sud-est asiatique au sud. En France, il vit dans les zones rocheuses de l'est, du centre et du sud. On le rencontre aussi bien dans les plaines que dans les montagnes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hibou_grand-duc</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hibou_grand-duc</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+On rencontre le Grand-duc d'Europe aussi bien dans les plaines que dans les montagnes. Il aime particulièrement les falaises, près des plans d'eau. Très discret, il s'installe sur des corniches rocheuses, sur les remparts d'un vieux château ou à même le sol ; parfois dans les régions du nord, dans un trou d'arbre mais sans aucun doute, sa préférence va aux grandes falaises proches d'un plan d'eau.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hibou_grand-duc</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hibou_grand-duc</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Sous-espèces
-D'après la classification de référence (version 12.2, 2022) du Congrès ornithologique international (ordre phylogénique) :
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 12.2, 2022) du Congrès ornithologique international (ordre phylogénique) :
 Bubo bubo hispanus Rothschild &amp; Hartert, EJO, 1910 — Péninsule Ibérique ;
 Bubo bubo bubo (Linnaeus, 1758) — De la Scandinavie et la France jusqu'à l'ouest de la Russie ;
 Bubo bubo interpositus Rothschild &amp; Hartert, EJO, 1910 — De la Turquie à la Bulgarie, Roumanie et sud de l'Ukraine ;
@@ -640,49 +810,205 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Hibou_grand-duc</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hibou_grand-duc</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hibou_grand-duc</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hibou_grand-duc</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Le hibou grand-duc et l'Homme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Conservation
-Menaces
-En Europe, il a longtemps été utilisé afin de limiter certaines populations d'oiseaux qualifiés de « nuisibles » (pie, corneille, corbeau, etc.) [9]. Il a aussi été pourchassé comme oiseau de malheur, parce qu'on croyait se protéger en le clouant sur les portes de granges, avant qu'on ne s'aperçoive de sa grande utilité écologique et agronomique et qu'il soit protégé par la loi.
-Les causes de sa disparition sont le recul, la dégradation ou la fragmentation écologique de son habitat, les tirs illégaux de braconniers (voir ci-dessous protection), les pesticides agricoles, les poisons utilisés contre les rongeurs (bromadiolone notamment), les accidents dus aux véhicules et la pollution lumineuse, car il est très sensible à l'éblouissement des phares de voitures. On note aussi une mortalité importante due aux collisions contre les câbles électriques aériens et les fils de fer. Les poisons utilisés pour détruire ses proies et les pesticides s'accumulent dans son organisme et peuvent entraîner sa mort[10].
-Aussi, depuis les années 1980, une chute de la population de Hiboux grands-ducs en France a été observée à cause de maladies (myxomatose, maladie hémorragique virale...) qui touchent leurs proies principales : les lapins[11].
-En France, à la fin du XXe siècle et au début du XXIe siècle, la population augmente mais reste inférieure à ses niveaux historiques[12].
-Historique de la protection
-En France, alors que tous les rapaces nocturnes ont été protégés dès 1902 en tant qu'oiseaux utiles à l'agriculture, seul le Grand-duc d'Europe était exclu de cette protection. Il est vrai que le fait que les chats domestiques pouvaient être au nombre de ses proies n'a pas joué en sa faveur[réf. souhaitée].
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Menaces</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Europe, il a longtemps été utilisé afin de limiter certaines populations d'oiseaux qualifiés de « nuisibles » (pie, corneille, corbeau, etc.) . Il a aussi été pourchassé comme oiseau de malheur, parce qu'on croyait se protéger en le clouant sur les portes de granges, avant qu'on ne s'aperçoive de sa grande utilité écologique et agronomique et qu'il soit protégé par la loi.
+Les causes de sa disparition sont le recul, la dégradation ou la fragmentation écologique de son habitat, les tirs illégaux de braconniers (voir ci-dessous protection), les pesticides agricoles, les poisons utilisés contre les rongeurs (bromadiolone notamment), les accidents dus aux véhicules et la pollution lumineuse, car il est très sensible à l'éblouissement des phares de voitures. On note aussi une mortalité importante due aux collisions contre les câbles électriques aériens et les fils de fer. Les poisons utilisés pour détruire ses proies et les pesticides s'accumulent dans son organisme et peuvent entraîner sa mort.
+Aussi, depuis les années 1980, une chute de la population de Hiboux grands-ducs en France a été observée à cause de maladies (myxomatose, maladie hémorragique virale...) qui touchent leurs proies principales : les lapins.
+En France, à la fin du XXe siècle et au début du XXIe siècle, la population augmente mais reste inférieure à ses niveaux historiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hibou_grand-duc</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hibou_grand-duc</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Le hibou grand-duc et l'Homme</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Historique de la protection</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, alors que tous les rapaces nocturnes ont été protégés dès 1902 en tant qu'oiseaux utiles à l'agriculture, seul le Grand-duc d'Europe était exclu de cette protection. Il est vrai que le fait que les chats domestiques pouvaient être au nombre de ses proies n'a pas joué en sa faveur[réf. souhaitée].
 Il a bénéficié d'une prohibition de la chasse grâce à l'arrêté ministériel du 27 novembre 1964 relatif aux espèces dont la chasse est prohibée confirmé par l'arrêté ministériel du 24 janvier 1972.
-Statut de protection actuelle
-Le Grand-duc d'Europe bénéficie d'une protection totale sur le territoire français depuis l'arrêté ministériel du 17 avril 1981 relatif aux oiseaux protégés sur l'ensemble du territoire. Il est inscrit à l'annexe I de la directive Oiseaux de l'Union européenne[13]. Il est donc interdit de le détruire, de le mutiler, de le capturer ou de l'enlever, de le perturber intentionnellement ou de le naturaliser, ainsi que de détruire ou enlever les œufs et les nids, et de détruire, altérer ou dégrader son milieu. Qu'il soit vivant ou mort, il est aussi interdit de le transporter, de le colporter, de l'utiliser, de le détenir, de le vendre ou de l'acheter. Toutefois depuis 2006 et surtout depuis l'arrêté d'octobre 2009, ces restrictions relatives à la cession et au transport ne s'appliquent plus qu'aux oiseaux sauvages vivant dans le milieu naturel[14]. Les hiboux grands-ducs nés et élevés en captivité peuvent être cédés à condition d'être identifiés &amp; accompagnés d'un CIC (certificat intracommunautaire pour l'application de la CITES dans l'Union Européenne).
-Pour éviter la disparition de l'espèce, il existe désormais des élevages spécialisés dans la reproduction du Grand-duc en captivité[15]. L'élevage en captivité est devenu très courant et la reproduction de cette espèce est très facile. Souvent la réussite, comme d'ailleurs pour la plupart des rapaces nocturnes, dépasse toutes les espérances. Il est même parfois nécessaire de limiter la reproduction[réf. nécessaire]. Pour ouvrir un élevage il faut, en plus des documents d'origine (CIC, attestation de provenance) en règle, avoir un certificat de capacité et une autorisation pour l'élevage. La réglementation prévoit le dépôt d'un dossier de demande à la Direction départementale de la Protection des populations (DDPP ), pour évaluation des capacités du candidat[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hibou_grand-duc</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hibou_grand-duc</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Le hibou grand-duc et l'Homme</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Statut de protection actuelle</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Grand-duc d'Europe bénéficie d'une protection totale sur le territoire français depuis l'arrêté ministériel du 17 avril 1981 relatif aux oiseaux protégés sur l'ensemble du territoire. Il est inscrit à l'annexe I de la directive Oiseaux de l'Union européenne. Il est donc interdit de le détruire, de le mutiler, de le capturer ou de l'enlever, de le perturber intentionnellement ou de le naturaliser, ainsi que de détruire ou enlever les œufs et les nids, et de détruire, altérer ou dégrader son milieu. Qu'il soit vivant ou mort, il est aussi interdit de le transporter, de le colporter, de l'utiliser, de le détenir, de le vendre ou de l'acheter. Toutefois depuis 2006 et surtout depuis l'arrêté d'octobre 2009, ces restrictions relatives à la cession et au transport ne s'appliquent plus qu'aux oiseaux sauvages vivant dans le milieu naturel. Les hiboux grands-ducs nés et élevés en captivité peuvent être cédés à condition d'être identifiés &amp; accompagnés d'un CIC (certificat intracommunautaire pour l'application de la CITES dans l'Union Européenne).
+Pour éviter la disparition de l'espèce, il existe désormais des élevages spécialisés dans la reproduction du Grand-duc en captivité. L'élevage en captivité est devenu très courant et la reproduction de cette espèce est très facile. Souvent la réussite, comme d'ailleurs pour la plupart des rapaces nocturnes, dépasse toutes les espérances. Il est même parfois nécessaire de limiter la reproduction[réf. nécessaire]. Pour ouvrir un élevage il faut, en plus des documents d'origine (CIC, attestation de provenance) en règle, avoir un certificat de capacité et une autorisation pour l'élevage. La réglementation prévoit le dépôt d'un dossier de demande à la Direction départementale de la Protection des populations (DDPP ), pour évaluation des capacités du candidat[réf. nécessaire].
 Les détenteurs des spécimens ainsi obtenus, apprivoisés, doivent avoir obtenu un diplôme adéquat. Ils reçoivent une formation et un traitement de l'administration pour entretenir leur Grand-duc, le nourrir, le soigner et l'entraîner à la chasse au vol. L'autorisation de détention pour la chasse au vol est de nature différente et peut s'obtenir plus facilement auprès de la DDTM (ex DDA).
-Utilisation de « Grands-ducs artificiels »
-De faux Grands-ducs sont parfois utilisés pour faire fuir des oiseaux (pour éviter leurs fientes). Certains sont au contraire utilisés pour attirer certains animaux qui sont attirés par ces effigies (ces dernières inquiètent certains animaux, qui s'en approchent avec des comportements d'intimidation ; elles sont donc utilisées pour la chasse et la destruction de certains animaux dits nuisibles (autorisé en France depuis 2012 à la demande de représentants des chasseurs[16]).
-Dans la culture
-L'espèce est représentée dans l'art pariétal de la grotte Chauvet[17].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Hibou_grand-duc</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hibou_grand-duc</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Le hibou grand-duc et l'Homme</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Utilisation de « Grands-ducs artificiels »</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De faux Grands-ducs sont parfois utilisés pour faire fuir des oiseaux (pour éviter leurs fientes). Certains sont au contraire utilisés pour attirer certains animaux qui sont attirés par ces effigies (ces dernières inquiètent certains animaux, qui s'en approchent avec des comportements d'intimidation ; elles sont donc utilisées pour la chasse et la destruction de certains animaux dits nuisibles (autorisé en France depuis 2012 à la demande de représentants des chasseurs).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hibou_grand-duc</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hibou_grand-duc</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Le hibou grand-duc et l'Homme</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Dans la culture</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>L'espèce est représentée dans l'art pariétal de la grotte Chauvet.
 Certains personnages de la série littéraire Les Gardiens de Ga'Hoole, de Kathryn Lasky, sont des Grand-ducs. Il en est de même pour le film d'animation de Zack Snyder Le Royaume de Ga'Hoole : La Légende des gardiens, tiré de cette série littéraire.
 Dans le jeu vidéo Sly Raccoon, le Hibou grand-duc est l'espèce d'oiseaux de Clockwerk, l'ennemi juré du héros de la série, Sly Cooper.</t>
         </is>
